--- a/2018-19_CCSB_LoadsData_WY2010-2018/Model Stats_rloadest/7_wy2016-2019/7_pTHg Model Results.xlsx
+++ b/2018-19_CCSB_LoadsData_WY2010-2018/Model Stats_rloadest/7_wy2016-2019/7_pTHg Model Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slrose\R\2018-19_CCSB_LoadsData_WY2010-2018\Model Stats_rloadest\7_wy2016-2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDFD696-8452-4A50-9494-A0CDD0A36E86}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F965A9A8-2D58-4707-BB43-28284BC695E3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28845" yWindow="6675" windowWidth="14130" windowHeight="11025" tabRatio="701" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="701" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template Model Results" sheetId="7" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="532">
   <si>
     <t>Model #</t>
   </si>
@@ -442,9 +442,6 @@
     <t>In loadReg(pTHg ~ model(9), data = pTHg_SAbutment, flow = "Flow",  :</t>
   </si>
   <si>
-    <t>&gt; pTHg_NAbutmentm1 &lt;- loadReg(pTHg ~model(1), data = pTHg_NAbutment, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
-  </si>
-  <si>
     <t>&gt; pTHg_NAbutmentm1</t>
   </si>
   <si>
@@ -604,120 +601,27 @@
     <t xml:space="preserve">           Center of Decimal Time: 2017.863</t>
   </si>
   <si>
-    <t xml:space="preserve">                  Center of ln(Q): 6.9428</t>
-  </si>
-  <si>
     <t xml:space="preserve">                 Period of record: 2016-03-10 to 2019-04-17</t>
   </si>
   <si>
-    <t>(Intercept)   -2.980    0.19088  -15.61       0</t>
-  </si>
-  <si>
-    <t>lnQ            1.569    0.09847   15.93       0</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.7144</t>
-  </si>
-  <si>
-    <t>R-squared: 88.81 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 74.46 on 1 degrees of freedom</t>
-  </si>
-  <si>
     <t xml:space="preserve">  r = 0.9878</t>
   </si>
   <si>
-    <t xml:space="preserve">  p-value = 0.5468</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.2839</t>
-  </si>
-  <si>
-    <t>Est   0 0.32 0.88 2.96 3.99 4.10 5.16</t>
-  </si>
-  <si>
-    <t>Obs   0 0.16 0.60 1.99 4.75 7.36 8.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: -6.001 percent</t>
-  </si>
-  <si>
-    <t>PLR: 0.94</t>
-  </si>
-  <si>
     <t xml:space="preserve">  E: 0.6002</t>
   </si>
   <si>
-    <t>(Intercept) -3.31080    0.27274  -12.14  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ          1.56906    0.09587   16.37  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ2         0.08815    0.05311    1.66  0.0889</t>
-  </si>
-  <si>
     <t>Residual variance: 0.6773</t>
   </si>
   <si>
-    <t>R-squared: 89.72 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 77.35 on 2 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.9931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.8748</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.4243</t>
-  </si>
-  <si>
-    <t>Est   0 0.24 0.78 3.42 4.98 5.15 6.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: 6.318 percent</t>
-  </si>
-  <si>
     <t>PLR: 1.063</t>
   </si>
   <si>
-    <t xml:space="preserve">  E: 0.6213</t>
-  </si>
-  <si>
     <t xml:space="preserve">            Estimate Std. Error  z-score p-value</t>
   </si>
   <si>
-    <t>(Intercept) -3.00975     0.1995 -15.0833  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ          1.58048     0.1014  15.5940  0.0000</t>
-  </si>
-  <si>
-    <t>DECTIME     -0.07658     0.1298  -0.5898  0.5379</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.7293</t>
-  </si>
-  <si>
-    <t>R-squared: 88.93 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 74.84 on 2 degrees of freedom</t>
-  </si>
-  <si>
     <t xml:space="preserve">  r = 0.9839</t>
   </si>
   <si>
-    <t xml:space="preserve">  p-value = 0.3458</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.28</t>
-  </si>
-  <si>
     <t>lnQ     1.038</t>
   </si>
   <si>
@@ -727,45 +631,9 @@
     <t>Est   0 0.35 0.78 2.70 3.71 4.37 4.65</t>
   </si>
   <si>
-    <t xml:space="preserve"> Bp: -6.929 percent</t>
-  </si>
-  <si>
-    <t>PLR: 0.9307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.542</t>
-  </si>
-  <si>
-    <t>(Intercept)  -3.9825      1.528 -2.6060  0.0084</t>
-  </si>
-  <si>
-    <t>lnQ           1.4644      0.134 10.9269  0.0000</t>
-  </si>
-  <si>
-    <t>sin.DECTIME   0.6059      1.297  0.4672  0.6195</t>
-  </si>
-  <si>
-    <t>cos.DECTIME   1.2003      1.317  0.9113  0.3353</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.7188</t>
-  </si>
-  <si>
-    <t>R-squared: 89.44 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 76.45 on 3 degrees of freedom</t>
-  </si>
-  <si>
     <t xml:space="preserve">  r = 0.9854</t>
   </si>
   <si>
-    <t xml:space="preserve">  p-value = 0.4153</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.2634</t>
-  </si>
-  <si>
     <t>lnQ         1.841</t>
   </si>
   <si>
@@ -778,45 +646,15 @@
     <t>Est   0 0.27 0.93 2.91 3.80 4.06 4.53</t>
   </si>
   <si>
-    <t xml:space="preserve"> Bp: -6.586 percent</t>
-  </si>
-  <si>
-    <t>PLR: 0.9341</t>
-  </si>
-  <si>
     <t xml:space="preserve">  E: 0.5871</t>
   </si>
   <si>
-    <t>(Intercept) -3.39360    0.28721 -11.8157  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ          1.58689    0.09793  16.2043  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ2         0.09763    0.05417   1.8022  0.0616</t>
-  </si>
-  <si>
-    <t>DECTIME     -0.11956    0.12762  -0.9368  0.3221</t>
-  </si>
-  <si>
     <t>Residual variance: 0.68</t>
   </si>
   <si>
-    <t>R-squared: 90.01 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 78.33 on 3 degrees of freedom</t>
-  </si>
-  <si>
     <t xml:space="preserve">  r = 0.9901</t>
   </si>
   <si>
-    <t xml:space="preserve">  p-value = 0.6922</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.4179</t>
-  </si>
-  <si>
     <t>lnQ     1.039</t>
   </si>
   <si>
@@ -826,105 +664,15 @@
     <t>DECTIME 1.075</t>
   </si>
   <si>
-    <t>Est   0 0.27 0.65 3.12 4.70 5.80 6.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: 6.114 percent</t>
-  </si>
-  <si>
     <t>PLR: 1.061</t>
   </si>
   <si>
-    <t xml:space="preserve">  E: 0.5173</t>
-  </si>
-  <si>
-    <t>(Intercept) -4.44515    1.51085 -2.9422  0.0029</t>
-  </si>
-  <si>
-    <t>lnQ          1.45962    0.13026 11.2054  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ2         0.08863    0.05326  1.6639  0.0783</t>
-  </si>
-  <si>
-    <t>sin.DECTIME  0.72448    1.26232  0.5739  0.5355</t>
-  </si>
-  <si>
-    <t>cos.DECTIME  1.29667    1.28122  1.0121  0.2773</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.6787</t>
-  </si>
-  <si>
-    <t>R-squared: 90.36 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 79.55 on 4 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.6197</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.4289</t>
-  </si>
-  <si>
     <t>lnQ         1.842</t>
   </si>
   <si>
-    <t>lnQ2        1.004</t>
-  </si>
-  <si>
-    <t>sin.DECTIME 7.423</t>
-  </si>
-  <si>
-    <t>cos.DECTIME 9.244</t>
-  </si>
-  <si>
-    <t>Est   0 0.20 0.82 3.48 4.79 5.13 6.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: 5.317 percent</t>
-  </si>
-  <si>
     <t>PLR: 1.053</t>
   </si>
   <si>
-    <t xml:space="preserve">  E: 0.6247</t>
-  </si>
-  <si>
-    <t>(Intercept) -3.95426     1.5543 -2.5441  0.0089</t>
-  </si>
-  <si>
-    <t>lnQ          1.47573     0.1408 10.4791  0.0000</t>
-  </si>
-  <si>
-    <t>DECTIME     -0.04198     0.1339 -0.3135  0.7345</t>
-  </si>
-  <si>
-    <t>sin.DECTIME  0.58092     1.3193  0.4403  0.6341</t>
-  </si>
-  <si>
-    <t>cos.DECTIME  1.14377     1.3494  0.8476  0.3617</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.741</t>
-  </si>
-  <si>
-    <t>R-squared: 89.48 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 76.56 on 4 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.9837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.3405</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.2653</t>
-  </si>
-  <si>
     <t>lnQ         1.972</t>
   </si>
   <si>
@@ -934,60 +682,9 @@
     <t>sin.DECTIME 7.426</t>
   </si>
   <si>
-    <t>cos.DECTIME 9.392</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Min  25% 50%  75%  90%  95%  Max</t>
   </si>
   <si>
-    <t>Est   0 0.28 0.9 2.84 3.84 4.18 4.31</t>
-  </si>
-  <si>
-    <t>Obs   0 0.16 0.6 1.99 4.75 7.36 8.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: -6.85 percent</t>
-  </si>
-  <si>
-    <t>PLR: 0.9315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.5535</t>
-  </si>
-  <si>
-    <t>(Intercept) -4.42316    1.52640 -2.8978  0.0028</t>
-  </si>
-  <si>
-    <t>lnQ          1.48257    0.13619 10.8862  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ2         0.09550    0.05482  1.7420  0.0614</t>
-  </si>
-  <si>
-    <t>DECTIME     -0.08607    0.13188 -0.6526  0.4737</t>
-  </si>
-  <si>
-    <t>sin.DECTIME  0.68234    1.27664  0.5345  0.5569</t>
-  </si>
-  <si>
-    <t>cos.DECTIME  1.18825    1.30472  0.9107  0.3191</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.6924</t>
-  </si>
-  <si>
-    <t>R-squared: 90.51 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 80.06 on 5 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.6171</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.4331</t>
-  </si>
-  <si>
     <t>lnQ         1.974</t>
   </si>
   <si>
@@ -997,90 +694,21 @@
     <t>DECTIME     1.128</t>
   </si>
   <si>
-    <t>sin.DECTIME 7.442</t>
-  </si>
-  <si>
     <t>cos.DECTIME 9.396</t>
   </si>
   <si>
-    <t>Est   0 0.22 0.74 3.18 4.68 5.37 5.70</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: 5.499 percent</t>
-  </si>
-  <si>
     <t>PLR: 1.055</t>
   </si>
   <si>
-    <t xml:space="preserve">  E: 0.548</t>
-  </si>
-  <si>
-    <t>(Intercept) -5.31909    1.27854 -4.1603  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ          1.47203    0.11214 13.1272  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ2         0.18792    0.05131  3.6626  0.0002</t>
-  </si>
-  <si>
-    <t>DECTIME     -0.08572    0.10856 -0.7897  0.3783</t>
-  </si>
-  <si>
-    <t>DECTIME2     0.80764    0.21339  3.7849  0.0001</t>
-  </si>
-  <si>
-    <t>sin.DECTIME -0.41151    1.08986 -0.3776  0.6722</t>
-  </si>
-  <si>
-    <t>cos.DECTIME  1.43952    1.07601  1.3378  0.1396</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.4692</t>
-  </si>
-  <si>
-    <t>R-squared: 93.8 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 94.53 on 6 degrees of freedom</t>
-  </si>
-  <si>
     <t xml:space="preserve">  r = 0.9608</t>
   </si>
   <si>
-    <t xml:space="preserve">  p-value = 0.0221</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.0564</t>
-  </si>
-  <si>
     <t>lnQ         1.975</t>
   </si>
   <si>
-    <t>lnQ2        1.347</t>
-  </si>
-  <si>
-    <t>DECTIME2    2.176</t>
-  </si>
-  <si>
-    <t>sin.DECTIME 8.005</t>
-  </si>
-  <si>
     <t>cos.DECTIME 9.432</t>
   </si>
   <si>
-    <t>Est   0 0.21 0.78 2.62 5.33 6.67 7.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: 4.053 percent</t>
-  </si>
-  <si>
-    <t>PLR: 1.041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.7139</t>
-  </si>
-  <si>
     <t>Number of Uncensored Observations: 34; Period of record: 2016-03-10 to 2019-04-17</t>
   </si>
   <si>
@@ -1144,9 +772,6 @@
     <t>Obs   0 0.11 0.82 6.35 7.70 12.10 12.9</t>
   </si>
   <si>
-    <t xml:space="preserve"> Bp: -5.819 percent</t>
-  </si>
-  <si>
     <t>PLR: 0.9418</t>
   </si>
   <si>
@@ -1159,9 +784,6 @@
     <t>&gt; pTHg_SAbutmentm2</t>
   </si>
   <si>
-    <t>(Intercept)  -3.4575    0.28316  -12.21   0e+00</t>
-  </si>
-  <si>
     <t>lnQ           1.5644    0.09029   17.33   0e+00</t>
   </si>
   <si>
@@ -1177,15 +799,6 @@
     <t>G-squared: 83.37 on 2 degrees of freedom</t>
   </si>
   <si>
-    <t xml:space="preserve">  r = 0.9824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.2769</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.3779</t>
-  </si>
-  <si>
     <t>Est   0 0.27 0.83 7.15 11.3 12.2 22.6</t>
   </si>
   <si>
@@ -1198,33 +811,18 @@
     <t>PLR: 1.228</t>
   </si>
   <si>
-    <t xml:space="preserve">  E: 0.4044</t>
-  </si>
-  <si>
     <t>&gt; pTHg_SAbutmentm3 &lt;- loadReg(pTHg ~model(3), data = pTHg_SAbutment, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
   </si>
   <si>
     <t>&gt; pTHg_SAbutmentm3</t>
   </si>
   <si>
-    <t>(Intercept)   -2.698     0.2281 -11.8294  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ            1.588     0.1111  14.2923  0.0000</t>
-  </si>
-  <si>
-    <t>DECTIME       -0.125     0.1531  -0.8164  0.3956</t>
-  </si>
-  <si>
     <t>Residual variance: 1.037</t>
   </si>
   <si>
     <t>R-squared: 86.93 percent</t>
   </si>
   <si>
-    <t>G-squared: 71.23 on 2 degrees of freedom</t>
-  </si>
-  <si>
     <t xml:space="preserve">  r = 0.965</t>
   </si>
   <si>
@@ -1252,12 +850,6 @@
     <t>Obs   0 0.11 0.82 6.35 7.70 12.10 12.90</t>
   </si>
   <si>
-    <t xml:space="preserve"> Bp: -7.187 percent</t>
-  </si>
-  <si>
-    <t>PLR: 0.9281</t>
-  </si>
-  <si>
     <t xml:space="preserve">  E: 0.7348</t>
   </si>
   <si>
@@ -1267,18 +859,6 @@
     <t>&gt; pTHg_SAbutmentm4</t>
   </si>
   <si>
-    <t>(Intercept)   -4.135     1.6500 -2.5062  0.0110</t>
-  </si>
-  <si>
-    <t>lnQ            1.441     0.1236 11.6655  0.0000</t>
-  </si>
-  <si>
-    <t>sin.DECTIME    0.761     1.4072  0.5408  0.5664</t>
-  </si>
-  <si>
-    <t>cos.DECTIME    1.843     1.3635  1.3518  0.1568</t>
-  </si>
-  <si>
     <t>Residual variance: 0.9387</t>
   </si>
   <si>
@@ -1309,15 +889,9 @@
     <t xml:space="preserve">    Min  25%  50%  75% 90%   95%   Max</t>
   </si>
   <si>
-    <t>Est   0 0.39 1.36 5.50 7.0  7.97  8.52</t>
-  </si>
-  <si>
     <t>Obs   0 0.11 0.82 6.35 7.7 12.10 12.90</t>
   </si>
   <si>
-    <t xml:space="preserve"> Bp: -8.002 percent</t>
-  </si>
-  <si>
     <t>PLR: 0.92</t>
   </si>
   <si>
@@ -1330,18 +904,9 @@
     <t>&gt; pTHg_SAbutmentm5</t>
   </si>
   <si>
-    <t>(Intercept)  -3.5862    0.29054 -12.343  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ           1.6000    0.09164  17.460  0.0000</t>
-  </si>
-  <si>
     <t>lnQ2          0.2092    0.05219   4.009  0.0001</t>
   </si>
   <si>
-    <t>DECTIME      -0.1919    0.12730  -1.507  0.1157</t>
-  </si>
-  <si>
     <t>Residual variance: 0.7051</t>
   </si>
   <si>
@@ -1375,30 +940,12 @@
     <t>PLR: 1.212</t>
   </si>
   <si>
-    <t xml:space="preserve">  E: 0.4828</t>
-  </si>
-  <si>
     <t>&gt; pTHg_SAbutmentm6 &lt;- loadReg(pTHg ~model(6), data = pTHg_SAbutment, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
   </si>
   <si>
     <t>&gt; pTHg_SAbutmentm6</t>
   </si>
   <si>
-    <t>(Intercept)  -4.6729    1.38359  -3.377  0.0008</t>
-  </si>
-  <si>
-    <t>lnQ           1.4563    0.10314  14.119  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ2          0.1904    0.04993   3.814  0.0002</t>
-  </si>
-  <si>
-    <t>sin.DECTIME   0.5991    1.17463   0.510  0.5825</t>
-  </si>
-  <si>
-    <t>cos.DECTIME   1.5910    1.13928   1.396  0.1376</t>
-  </si>
-  <si>
     <t>Residual variance: 0.6532</t>
   </si>
   <si>
@@ -1411,9 +958,6 @@
     <t xml:space="preserve">  r = 0.9783</t>
   </si>
   <si>
-    <t xml:space="preserve">  p-value = 0.1632</t>
-  </si>
-  <si>
     <t>Serial Correlation of Residuals: 0.3231</t>
   </si>
   <si>
@@ -1438,30 +982,12 @@
     <t>PLR: 1.167</t>
   </si>
   <si>
-    <t xml:space="preserve">  E: 0.6647</t>
-  </si>
-  <si>
     <t>&gt; pTHg_SAbutmentm7 &lt;- loadReg(pTHg ~model(7), data = pTHg_SAbutment, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
   </si>
   <si>
     <t>&gt; pTHg_SAbutmentm7</t>
   </si>
   <si>
-    <t>(Intercept) -4.10060     1.6778 -2.4440  0.0117</t>
-  </si>
-  <si>
-    <t>lnQ          1.45492     0.1323 10.9989  0.0000</t>
-  </si>
-  <si>
-    <t>DECTIME     -0.04911     0.1522 -0.3227  0.7277</t>
-  </si>
-  <si>
-    <t>sin.DECTIME  0.73078     1.4311  0.5107  0.5821</t>
-  </si>
-  <si>
-    <t>cos.DECTIME  1.77479     1.3997  1.2680  0.1765</t>
-  </si>
-  <si>
     <t>Residual variance: 0.9666</t>
   </si>
   <si>
@@ -1495,9 +1021,6 @@
     <t>Est   0 0.41 1.40 5.45 7.02  8.07  8.31</t>
   </si>
   <si>
-    <t xml:space="preserve"> Bp: -8.102 percent</t>
-  </si>
-  <si>
     <t>PLR: 0.919</t>
   </si>
   <si>
@@ -1510,33 +1033,9 @@
     <t>&gt; pTHg_SAbutmentm8</t>
   </si>
   <si>
-    <t>(Intercept)  -4.6064    1.38582 -3.3239  0.0008</t>
-  </si>
-  <si>
-    <t>lnQ           1.4915    0.10918 13.6604  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ2          0.1981    0.05054  3.9188  0.0001</t>
-  </si>
-  <si>
-    <t>DECTIME      -0.1250    0.12665 -0.9869  0.2822</t>
-  </si>
-  <si>
-    <t>sin.DECTIME   0.5156    1.17818  0.4376  0.6312</t>
-  </si>
-  <si>
-    <t>cos.DECTIME   1.4069    1.15493  1.2182  0.1863</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.6537</t>
-  </si>
-  <si>
     <t>R-squared: 92.54 percent</t>
   </si>
   <si>
-    <t>G-squared: 90.83 on 5 degrees of freedom</t>
-  </si>
-  <si>
     <t xml:space="preserve">  r = 0.9781</t>
   </si>
   <si>
@@ -1564,42 +1063,15 @@
     <t>Est   0 0.21 0.81 6.32 11.1 14.2 15.4</t>
   </si>
   <si>
-    <t xml:space="preserve"> Bp: 17.08 percent</t>
-  </si>
-  <si>
     <t>PLR: 1.171</t>
   </si>
   <si>
-    <t xml:space="preserve">  E: 0.6357</t>
-  </si>
-  <si>
     <t>&gt; pTHg_SAbutmentm9 &lt;- loadReg(pTHg ~model(9), data = pTHg_SAbutment, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
   </si>
   <si>
     <t>&gt; pTHg_SAbutmentm9</t>
   </si>
   <si>
-    <t>(Intercept)  -4.5032     1.3074 -3.4443  0.0004</t>
-  </si>
-  <si>
-    <t>lnQ           1.5593     0.1077 14.4843  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ2          0.2327     0.0503  4.6267  0.0000</t>
-  </si>
-  <si>
-    <t>DECTIME      -0.1372     0.1195 -1.1478  0.2046</t>
-  </si>
-  <si>
-    <t>DECTIME2      0.4244     0.1973  2.1510  0.0207</t>
-  </si>
-  <si>
-    <t>sin.DECTIME  -0.5062     1.2081 -0.4190  0.6400</t>
-  </si>
-  <si>
-    <t>cos.DECTIME   0.9581     1.1087  0.8642  0.3371</t>
-  </si>
-  <si>
     <t>Residual variance: 0.5811</t>
   </si>
   <si>
@@ -1612,9 +1084,6 @@
     <t xml:space="preserve">  r = 0.9859</t>
   </si>
   <si>
-    <t xml:space="preserve">  p-value = 0.4261</t>
-  </si>
-  <si>
     <t>Serial Correlation of Residuals: 0.0078</t>
   </si>
   <si>
@@ -1645,13 +1114,559 @@
     <t>PLR: 1.18</t>
   </si>
   <si>
-    <t xml:space="preserve">  E: 0.5067</t>
-  </si>
-  <si>
     <t>22.44, 23.48, n/a, 23.01</t>
   </si>
   <si>
     <t>18.14, 18.45, n/a, 18.05</t>
+  </si>
+  <si>
+    <t>pTHg_NAbutmentm1 &lt;- loadReg(pTHg ~model(1), data = pTHg_NAbutment, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  Center of ln(Q): 6.9386</t>
+  </si>
+  <si>
+    <t>(Intercept)   -2.985    0.19107  -15.62       0</t>
+  </si>
+  <si>
+    <t>lnQ            1.568    0.09839   15.94       0</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.7146</t>
+  </si>
+  <si>
+    <t>R-squared: 88.82 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 74.49 on 1 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.5487</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2832</t>
+  </si>
+  <si>
+    <t>Est   0 0.32 0.88 2.96 3.99 4.10 5.17</t>
+  </si>
+  <si>
+    <t>Obs   0 0.16 0.60 1.99 4.75 7.35 8.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -6.025 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9398</t>
+  </si>
+  <si>
+    <t>(Intercept) -3.31675    0.27280 -12.158  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.56846    0.09578  16.375  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.08792    0.05291   1.662  0.0885</t>
+  </si>
+  <si>
+    <t>R-squared: 89.73 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 77.39 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.8729</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.4239</t>
+  </si>
+  <si>
+    <t>Est   0 0.24 0.78 3.41 4.98 5.15 6.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 6.3 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.6214</t>
+  </si>
+  <si>
+    <t>(Intercept)  -3.0153     0.1997 -15.0961  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           1.5798     0.1013  15.6006  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.0765     0.1299  -0.5891  0.5384</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.7295</t>
+  </si>
+  <si>
+    <t>R-squared: 88.94 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 74.86 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.3471</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2793</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -6.952 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.5422</t>
+  </si>
+  <si>
+    <t>(Intercept)  -3.9887     1.5282 -2.6101  0.0083</t>
+  </si>
+  <si>
+    <t>lnQ           1.4638     0.1339 10.9311  0.0000</t>
+  </si>
+  <si>
+    <t>sin.DECTIME   0.6068     1.2971  0.4678  0.6191</t>
+  </si>
+  <si>
+    <t>cos.DECTIME   1.2011     1.3173  0.9118  0.3350</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.7189</t>
+  </si>
+  <si>
+    <t>R-squared: 89.45 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 76.47 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.4162</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2626</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -6.608 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9339</t>
+  </si>
+  <si>
+    <t>(Intercept) -3.39948    0.28727 -11.8336  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.58625    0.09784  16.2128  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.09735    0.05396   1.8042  0.0613</t>
+  </si>
+  <si>
+    <t>DECTIME     -0.11948    0.12762  -0.9362  0.3224</t>
+  </si>
+  <si>
+    <t>R-squared: 90.02 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 78.37 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.6891</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.4176</t>
+  </si>
+  <si>
+    <t>Est   0 0.27 0.65 3.12 4.69 5.79 6.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 6.09 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.5176</t>
+  </si>
+  <si>
+    <t>(Intercept) -4.44944    1.51047 -2.9457  0.0029</t>
+  </si>
+  <si>
+    <t>lnQ          1.45916    0.13015 11.2116  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.08837    0.05305  1.6657  0.0780</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  0.72343    1.26229  0.5731  0.5360</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  1.29564    1.28125  1.0112  0.2777</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.6788</t>
+  </si>
+  <si>
+    <t>R-squared: 90.37 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 79.58 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.6191</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.4286</t>
+  </si>
+  <si>
+    <t>lnQ2        1.003</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 7.422</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 9.243</t>
+  </si>
+  <si>
+    <t>Est   0 0.20 0.82 3.48 4.79 5.13 6.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 5.298 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.6248</t>
+  </si>
+  <si>
+    <t>(Intercept)  -3.9606     1.5543 -2.5481  0.0088</t>
+  </si>
+  <si>
+    <t>lnQ           1.4751     0.1407 10.4830  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.0419     0.1339 -0.3129  0.7350</t>
+  </si>
+  <si>
+    <t>sin.DECTIME   0.5818     1.3195  0.4410  0.6336</t>
+  </si>
+  <si>
+    <t>cos.DECTIME   1.1447     1.3497  0.8481  0.3614</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.7412</t>
+  </si>
+  <si>
+    <t>R-squared: 89.49 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 76.59 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.3421</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2646</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 9.393</t>
+  </si>
+  <si>
+    <t>Est   0 0.28 0.9 2.84 3.83 4.17 4.32</t>
+  </si>
+  <si>
+    <t>Obs   0 0.16 0.6 1.99 4.75 7.35 8.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -6.872 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.5536</t>
+  </si>
+  <si>
+    <t>(Intercept) -4.42735     1.5260 -2.9012  0.0028</t>
+  </si>
+  <si>
+    <t>lnQ          1.48208     0.1361 10.8918  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.09520     0.0546  1.7435  0.0612</t>
+  </si>
+  <si>
+    <t>DECTIME     -0.08599     0.1319 -0.6520  0.4741</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  0.68121     1.2766  0.5336  0.5575</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  1.18721     1.3048  0.9099  0.3196</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.6925</t>
+  </si>
+  <si>
+    <t>R-squared: 90.52 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 80.09 on 5 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.6146</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.4328</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 7.441</t>
+  </si>
+  <si>
+    <t>Est   0 0.22 0.74 3.18 4.67 5.37 5.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 5.476 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.5483</t>
+  </si>
+  <si>
+    <t>(Intercept) -5.32527    1.27821 -4.1662  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.47115    0.11203 13.1316  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.18751    0.05113  3.6675  0.0002</t>
+  </si>
+  <si>
+    <t>DECTIME     -0.08557    0.10855 -0.7884  0.3791</t>
+  </si>
+  <si>
+    <t>DECTIME2     0.80836    0.21351  3.7860  0.0001</t>
+  </si>
+  <si>
+    <t>sin.DECTIME -0.41306    1.08976 -0.3790  0.6710</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  1.43998    1.07598  1.3383  0.1395</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.4691</t>
+  </si>
+  <si>
+    <t>R-squared: 93.81 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 94.57 on 6 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.022</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.0568</t>
+  </si>
+  <si>
+    <t>lnQ2        1.348</t>
+  </si>
+  <si>
+    <t>DECTIME2    2.179</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 8.004</t>
+  </si>
+  <si>
+    <t>Est   0 0.21 0.78 2.61 5.33 6.67 7.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 4.043 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.714</t>
+  </si>
+  <si>
+    <t>23.25, 18.27, n/a, 18.06</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -5.817 percent</t>
+  </si>
+  <si>
+    <t>(Intercept)  -3.4575    0.28317  -12.21   0e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.2771</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.4042</t>
+  </si>
+  <si>
+    <t>(Intercept)   -2.698     0.2281 -11.8293  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ            1.588     0.1111  14.2921  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME       -0.125     0.1531  -0.8164  0.3957</t>
+  </si>
+  <si>
+    <t>G-squared: 71.22 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -7.184 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9282</t>
+  </si>
+  <si>
+    <t>(Intercept)  -4.1353     1.6500 -2.5062  0.0110</t>
+  </si>
+  <si>
+    <t>lnQ           1.4413     0.1236 11.6654  0.0000</t>
+  </si>
+  <si>
+    <t>sin.DECTIME   0.7611     1.4072  0.5409  0.5664</t>
+  </si>
+  <si>
+    <t>cos.DECTIME   1.8432     1.3635  1.3519  0.1568</t>
+  </si>
+  <si>
+    <t>Est   0 0.39 1.36 5.49 7.0  7.97  8.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -8 percent</t>
+  </si>
+  <si>
+    <t>(Intercept)  -3.5862    0.29055 -12.343  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           1.6000    0.09164  17.459  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.1919    0.12731  -1.507  0.1157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.4827</t>
+  </si>
+  <si>
+    <t>(Intercept)  -4.6730    1.38362 -3.3774  0.0008</t>
+  </si>
+  <si>
+    <t>lnQ           1.4563    0.10314 14.1189  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2          0.1904    0.04993  3.8142  0.0002</t>
+  </si>
+  <si>
+    <t>sin.DECTIME   0.5992    1.17465  0.5101  0.5824</t>
+  </si>
+  <si>
+    <t>cos.DECTIME   1.5911    1.13931  1.3965  0.1376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.1633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.6646</t>
+  </si>
+  <si>
+    <t>(Intercept)  -4.1007     1.6778 -2.4441  0.0117</t>
+  </si>
+  <si>
+    <t>lnQ           1.4549     0.1323 10.9988  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.0491     0.1522 -0.3226  0.7277</t>
+  </si>
+  <si>
+    <t>sin.DECTIME   0.7309     1.4311  0.5107  0.5820</t>
+  </si>
+  <si>
+    <t>cos.DECTIME   1.7749     1.3997  1.2680  0.1764</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -8.1 percent</t>
+  </si>
+  <si>
+    <t>(Intercept)  -4.6066    1.38586 -3.3240  0.0008</t>
+  </si>
+  <si>
+    <t>lnQ           1.4915    0.10919 13.6598  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2          0.1981    0.05055  3.9186  0.0001</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.1250    0.12666 -0.9868  0.2823</t>
+  </si>
+  <si>
+    <t>sin.DECTIME   0.5158    1.17821  0.4378  0.6311</t>
+  </si>
+  <si>
+    <t>cos.DECTIME   1.4071    1.15496  1.2183  0.1863</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.6538</t>
+  </si>
+  <si>
+    <t>G-squared: 90.82 on 5 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 17.09 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.6356</t>
+  </si>
+  <si>
+    <t>(Intercept)  -4.5034    1.30745 -3.4444  0.0004</t>
+  </si>
+  <si>
+    <t>lnQ           1.5593    0.10766 14.4837  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2          0.2327    0.05031  4.6264  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.1372    0.11955 -1.1476  0.2047</t>
+  </si>
+  <si>
+    <t>DECTIME2      0.4244    0.19731  2.1509  0.0207</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  -0.5060    1.20812 -0.4189  0.6401</t>
+  </si>
+  <si>
+    <t>cos.DECTIME   0.9582    1.10869  0.8643  0.3371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.4263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.5065</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>x- only option</t>
   </si>
 </sst>
 </file>
@@ -1940,7 +1955,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2086,6 +2101,18 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2151,6 +2178,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3031,10 +3061,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="63"/>
+      <c r="B1" s="67"/>
       <c r="C1" s="9"/>
       <c r="K1" s="18" t="s">
         <v>24</v>
@@ -3078,17 +3108,17 @@
     </row>
     <row r="3" spans="1:34" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="57"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="61"/>
       <c r="Y4" s="17" t="s">
         <v>28</v>
       </c>
@@ -3103,19 +3133,19 @@
       <c r="AH4" s="17"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="61" t="s">
+      <c r="B5" s="68"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="61"/>
+      <c r="L5" s="65"/>
       <c r="Y5" s="17" t="s">
         <v>29</v>
       </c>
@@ -3390,17 +3420,17 @@
       <c r="Y15" s="5"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="57"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="61"/>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
@@ -3413,19 +3443,19 @@
       <c r="AH17" s="9"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B18" s="64"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="61" t="s">
+      <c r="B18" s="68"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="L18" s="61"/>
+      <c r="L18" s="65"/>
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
@@ -3697,32 +3727,32 @@
       <c r="Y28" s="5"/>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="57"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="61"/>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B31" s="64"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="61" t="s">
+      <c r="B31" s="68"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="L31" s="61"/>
+      <c r="L31" s="65"/>
     </row>
     <row r="32" spans="1:34" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
@@ -3994,32 +4024,32 @@
       <c r="AA42" s="22"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B43" s="55" t="s">
+      <c r="B43" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="57"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="61"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B44" s="58"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="60"/>
-      <c r="K44" s="61" t="s">
+      <c r="B44" s="62"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="64"/>
+      <c r="K44" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="L44" s="61"/>
+      <c r="L44" s="65"/>
     </row>
     <row r="45" spans="1:27" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
@@ -4282,32 +4312,32 @@
       <c r="AA54" s="22"/>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B56" s="55" t="s">
+      <c r="B56" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="56"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="56"/>
-      <c r="J56" s="57"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="60"/>
+      <c r="G56" s="60"/>
+      <c r="H56" s="60"/>
+      <c r="I56" s="60"/>
+      <c r="J56" s="61"/>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B57" s="64"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="65"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="65"/>
-      <c r="I57" s="65"/>
-      <c r="J57" s="66"/>
-      <c r="K57" s="61" t="s">
+      <c r="B57" s="68"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="69"/>
+      <c r="J57" s="70"/>
+      <c r="K57" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="L57" s="61"/>
+      <c r="L57" s="65"/>
     </row>
     <row r="58" spans="1:27" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
@@ -4538,32 +4568,32 @@
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B70" s="55" t="s">
+      <c r="B70" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C70" s="56"/>
-      <c r="D70" s="56"/>
-      <c r="E70" s="56"/>
-      <c r="F70" s="56"/>
-      <c r="G70" s="56"/>
-      <c r="H70" s="56"/>
-      <c r="I70" s="56"/>
-      <c r="J70" s="57"/>
+      <c r="C70" s="60"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="60"/>
+      <c r="F70" s="60"/>
+      <c r="G70" s="60"/>
+      <c r="H70" s="60"/>
+      <c r="I70" s="60"/>
+      <c r="J70" s="61"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B71" s="64"/>
-      <c r="C71" s="65"/>
-      <c r="D71" s="65"/>
-      <c r="E71" s="65"/>
-      <c r="F71" s="65"/>
-      <c r="G71" s="65"/>
-      <c r="H71" s="65"/>
-      <c r="I71" s="65"/>
-      <c r="J71" s="66"/>
-      <c r="K71" s="61" t="s">
+      <c r="B71" s="68"/>
+      <c r="C71" s="69"/>
+      <c r="D71" s="69"/>
+      <c r="E71" s="69"/>
+      <c r="F71" s="69"/>
+      <c r="G71" s="69"/>
+      <c r="H71" s="69"/>
+      <c r="I71" s="69"/>
+      <c r="J71" s="70"/>
+      <c r="K71" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="L71" s="61"/>
+      <c r="L71" s="65"/>
     </row>
     <row r="72" spans="1:14" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
@@ -4888,9 +4918,9 @@
   </sheetPr>
   <dimension ref="A1:AL96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P83" sqref="P83"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P97" sqref="P97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4911,26 +4941,26 @@
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="67" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="68" t="s">
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="67" t="s">
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="67"/>
+      <c r="M1" s="71"/>
       <c r="R1" s="29"/>
       <c r="S1" s="29"/>
       <c r="T1" s="23"/>
@@ -5101,18 +5131,18 @@
       <c r="AL5" s="17"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="76"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="80"/>
       <c r="AC6" s="17" t="s">
         <v>29</v>
       </c>
@@ -5128,20 +5158,20 @@
     </row>
     <row r="7" spans="1:38" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="61" t="s">
+      <c r="B7" s="75"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="61"/>
+      <c r="M7" s="65"/>
       <c r="N7"/>
       <c r="O7" s="29"/>
       <c r="P7" s="29"/>
@@ -5572,35 +5602,35 @@
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="76"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="80"/>
     </row>
     <row r="20" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="61" t="s">
+      <c r="B20" s="75"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="M20" s="61"/>
+      <c r="M20" s="65"/>
       <c r="N20"/>
       <c r="O20" s="29"/>
       <c r="P20" s="29"/>
@@ -6056,35 +6086,35 @@
       <c r="T31" s="21"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B32" s="74" t="s">
+      <c r="B32" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="75"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="75"/>
-      <c r="K32" s="76"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="80"/>
     </row>
     <row r="33" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
-      <c r="B33" s="71"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="61" t="s">
+      <c r="B33" s="75"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="M33" s="61"/>
+      <c r="M33" s="65"/>
       <c r="N33"/>
       <c r="O33" s="29"/>
       <c r="P33" s="29"/>
@@ -6535,35 +6565,35 @@
       </c>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B45" s="74" t="s">
+      <c r="B45" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="75"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="75"/>
-      <c r="G45" s="75"/>
-      <c r="H45" s="75"/>
-      <c r="I45" s="75"/>
-      <c r="J45" s="75"/>
-      <c r="K45" s="76"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="79"/>
+      <c r="G45" s="79"/>
+      <c r="H45" s="79"/>
+      <c r="I45" s="79"/>
+      <c r="J45" s="79"/>
+      <c r="K45" s="80"/>
     </row>
     <row r="46" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
-      <c r="B46" s="71"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="72"/>
-      <c r="J46" s="72"/>
-      <c r="K46" s="73"/>
-      <c r="L46" s="61" t="s">
+      <c r="B46" s="75"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="76"/>
+      <c r="I46" s="76"/>
+      <c r="J46" s="76"/>
+      <c r="K46" s="77"/>
+      <c r="L46" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="M46" s="61"/>
+      <c r="M46" s="65"/>
       <c r="N46"/>
       <c r="O46" s="29"/>
       <c r="P46" s="29"/>
@@ -7014,35 +7044,35 @@
       </c>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B59" s="74" t="s">
+      <c r="B59" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="C59" s="75"/>
-      <c r="D59" s="75"/>
-      <c r="E59" s="75"/>
-      <c r="F59" s="75"/>
-      <c r="G59" s="75"/>
-      <c r="H59" s="75"/>
-      <c r="I59" s="75"/>
-      <c r="J59" s="75"/>
-      <c r="K59" s="76"/>
+      <c r="C59" s="79"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="79"/>
+      <c r="G59" s="79"/>
+      <c r="H59" s="79"/>
+      <c r="I59" s="79"/>
+      <c r="J59" s="79"/>
+      <c r="K59" s="80"/>
     </row>
     <row r="60" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
-      <c r="B60" s="71"/>
-      <c r="C60" s="72"/>
-      <c r="D60" s="72"/>
-      <c r="E60" s="72"/>
-      <c r="F60" s="72"/>
-      <c r="G60" s="72"/>
-      <c r="H60" s="72"/>
-      <c r="I60" s="72"/>
-      <c r="J60" s="72"/>
-      <c r="K60" s="73"/>
-      <c r="L60" s="61" t="s">
+      <c r="B60" s="75"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="76"/>
+      <c r="J60" s="76"/>
+      <c r="K60" s="77"/>
+      <c r="L60" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="M60" s="61"/>
+      <c r="M60" s="65"/>
       <c r="N60"/>
       <c r="O60" s="29"/>
       <c r="P60" s="29"/>
@@ -7494,18 +7524,18 @@
     </row>
     <row r="72" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A72" s="43"/>
-      <c r="B72" s="74" t="s">
+      <c r="B72" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="C72" s="75"/>
-      <c r="D72" s="75"/>
-      <c r="E72" s="75"/>
-      <c r="F72" s="75"/>
-      <c r="G72" s="75"/>
-      <c r="H72" s="75"/>
-      <c r="I72" s="75"/>
-      <c r="J72" s="75"/>
-      <c r="K72" s="76"/>
+      <c r="C72" s="79"/>
+      <c r="D72" s="79"/>
+      <c r="E72" s="79"/>
+      <c r="F72" s="79"/>
+      <c r="G72" s="79"/>
+      <c r="H72" s="79"/>
+      <c r="I72" s="79"/>
+      <c r="J72" s="79"/>
+      <c r="K72" s="80"/>
       <c r="L72" s="43"/>
       <c r="M72" s="43"/>
       <c r="O72" s="43"/>
@@ -7514,22 +7544,22 @@
     </row>
     <row r="73" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="43"/>
-      <c r="B73" s="71" t="s">
-        <v>336</v>
-      </c>
-      <c r="C73" s="72"/>
-      <c r="D73" s="72"/>
-      <c r="E73" s="72"/>
-      <c r="F73" s="72"/>
-      <c r="G73" s="72"/>
-      <c r="H73" s="72"/>
-      <c r="I73" s="72"/>
-      <c r="J73" s="72"/>
-      <c r="K73" s="73"/>
-      <c r="L73" s="61" t="s">
+      <c r="B73" s="75" t="s">
+        <v>212</v>
+      </c>
+      <c r="C73" s="76"/>
+      <c r="D73" s="76"/>
+      <c r="E73" s="76"/>
+      <c r="F73" s="76"/>
+      <c r="G73" s="76"/>
+      <c r="H73" s="76"/>
+      <c r="I73" s="76"/>
+      <c r="J73" s="76"/>
+      <c r="K73" s="77"/>
+      <c r="L73" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="M73" s="61"/>
+      <c r="M73" s="65"/>
       <c r="N73"/>
       <c r="O73" s="43"/>
       <c r="P73" s="43"/>
@@ -7615,56 +7645,56 @@
       <c r="AC74" s="14"/>
     </row>
     <row r="75" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="52">
+      <c r="A75" s="15">
         <v>1</v>
       </c>
-      <c r="B75" s="23">
+      <c r="B75" s="15">
         <v>0</v>
       </c>
-      <c r="C75" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" s="23" t="s">
+      <c r="C75" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I75" s="23">
-        <v>88.81</v>
-      </c>
-      <c r="J75" s="24">
-        <v>0.54679999999999995</v>
-      </c>
-      <c r="K75" s="23">
-        <v>0.28389999999999999</v>
-      </c>
-      <c r="L75" s="23">
-        <v>-6.0010000000000003</v>
-      </c>
-      <c r="M75" s="23">
+      <c r="I75" s="15">
+        <v>88.82</v>
+      </c>
+      <c r="J75" s="58">
+        <v>0.54869999999999997</v>
+      </c>
+      <c r="K75" s="15">
+        <v>0.28320000000000001</v>
+      </c>
+      <c r="L75" s="15">
+        <v>-6.0250000000000004</v>
+      </c>
+      <c r="M75" s="15">
         <v>0.60019999999999996</v>
       </c>
       <c r="N75" s="53">
         <v>1</v>
       </c>
       <c r="O75" s="53" t="s">
-        <v>337</v>
+        <v>213</v>
       </c>
       <c r="P75" s="53" t="s">
-        <v>526</v>
+        <v>348</v>
       </c>
       <c r="Q75" s="54" t="s">
-        <v>13</v>
+        <v>475</v>
       </c>
       <c r="R75" s="21" t="s">
         <v>14</v>
@@ -7684,7 +7714,7 @@
         <v>0</v>
       </c>
       <c r="C76" s="24">
-        <v>8.8900000000000007E-2</v>
+        <v>8.8499999999999995E-2</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>13</v>
@@ -7702,27 +7732,29 @@
         <v>7</v>
       </c>
       <c r="I76" s="23">
-        <v>89.72</v>
-      </c>
-      <c r="J76" s="52">
-        <v>0.87480000000000002</v>
+        <v>89.73</v>
+      </c>
+      <c r="J76" s="55">
+        <v>0.87290000000000001</v>
       </c>
       <c r="K76" s="23">
-        <v>0.42430000000000001</v>
+        <v>0.4239</v>
       </c>
       <c r="L76" s="23">
-        <v>6.3179999999999996</v>
+        <v>6.3</v>
       </c>
       <c r="M76" s="23">
-        <v>0.62129999999999996</v>
+        <v>0.62139999999999995</v>
       </c>
       <c r="N76" s="23">
         <v>2</v>
       </c>
       <c r="O76" s="42" t="s">
-        <v>337</v>
-      </c>
-      <c r="P76" s="42"/>
+        <v>213</v>
+      </c>
+      <c r="P76" s="42" t="s">
+        <v>474</v>
+      </c>
       <c r="Q76" s="41"/>
       <c r="R76" s="21" t="s">
         <v>14</v>
@@ -7745,7 +7777,7 @@
         <v>13</v>
       </c>
       <c r="D77" s="24">
-        <v>0.53790000000000004</v>
+        <v>0.53839999999999999</v>
       </c>
       <c r="E77" s="16" t="s">
         <v>13</v>
@@ -7760,19 +7792,19 @@
         <v>7</v>
       </c>
       <c r="I77" s="23">
-        <v>88.93</v>
-      </c>
-      <c r="J77" s="52">
-        <v>0.3458</v>
+        <v>88.94</v>
+      </c>
+      <c r="J77" s="55">
+        <v>0.34710000000000002</v>
       </c>
       <c r="K77" s="23">
-        <v>0.28000000000000003</v>
+        <v>0.27929999999999999</v>
       </c>
       <c r="L77" s="23">
-        <v>-6.9290000000000003</v>
+        <v>-6.952</v>
       </c>
       <c r="M77" s="23">
-        <v>0.54200000000000004</v>
+        <v>0.54220000000000002</v>
       </c>
       <c r="N77" s="41">
         <v>3</v>
@@ -7807,25 +7839,25 @@
         <v>13</v>
       </c>
       <c r="F78" s="23">
-        <v>0.61950000000000005</v>
+        <v>0.61909999999999998</v>
       </c>
       <c r="G78" s="23">
-        <v>0.33529999999999999</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="H78" s="23" t="s">
         <v>7</v>
       </c>
       <c r="I78" s="23">
-        <v>89.44</v>
-      </c>
-      <c r="J78" s="52">
-        <v>0.4153</v>
+        <v>89.45</v>
+      </c>
+      <c r="J78" s="55">
+        <v>0.41620000000000001</v>
       </c>
       <c r="K78" s="23">
-        <v>0.26340000000000002</v>
+        <v>0.2626</v>
       </c>
       <c r="L78" s="23">
-        <v>-6.5860000000000003</v>
+        <v>-6.6079999999999997</v>
       </c>
       <c r="M78" s="23">
         <v>0.58709999999999996</v>
@@ -7853,10 +7885,10 @@
         <v>0</v>
       </c>
       <c r="C79" s="23">
-        <v>6.1600000000000002E-2</v>
+        <v>6.13E-2</v>
       </c>
       <c r="D79" s="23">
-        <v>0.3221</v>
+        <v>0.32240000000000002</v>
       </c>
       <c r="E79" s="16" t="s">
         <v>13</v>
@@ -7871,19 +7903,19 @@
         <v>7</v>
       </c>
       <c r="I79" s="23">
-        <v>90.01</v>
-      </c>
-      <c r="J79" s="52">
-        <v>0.69220000000000004</v>
+        <v>90.02</v>
+      </c>
+      <c r="J79" s="55">
+        <v>0.68910000000000005</v>
       </c>
       <c r="K79" s="23">
-        <v>0.41789999999999999</v>
+        <v>0.41760000000000003</v>
       </c>
       <c r="L79" s="23">
-        <v>6.1139999999999999</v>
+        <v>6.09</v>
       </c>
       <c r="M79" s="23">
-        <v>0.51729999999999998</v>
+        <v>0.51759999999999995</v>
       </c>
       <c r="N79" s="41">
         <v>5</v>
@@ -7909,7 +7941,7 @@
         <v>0</v>
       </c>
       <c r="C80" s="23">
-        <v>7.8299999999999995E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>13</v>
@@ -7918,28 +7950,28 @@
         <v>13</v>
       </c>
       <c r="F80" s="23">
-        <v>0.53549999999999998</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="G80" s="23">
-        <v>0.27729999999999999</v>
+        <v>0.2777</v>
       </c>
       <c r="H80" s="23" t="s">
         <v>7</v>
       </c>
       <c r="I80" s="23">
-        <v>90.36</v>
-      </c>
-      <c r="J80" s="52">
-        <v>0.61970000000000003</v>
+        <v>90.37</v>
+      </c>
+      <c r="J80" s="55">
+        <v>0.61909999999999998</v>
       </c>
       <c r="K80" s="23">
-        <v>0.4289</v>
+        <v>0.42859999999999998</v>
       </c>
       <c r="L80" s="23">
-        <v>5.3170000000000002</v>
+        <v>5.298</v>
       </c>
       <c r="M80" s="23">
-        <v>0.62470000000000003</v>
+        <v>0.62480000000000002</v>
       </c>
       <c r="N80" s="41">
         <v>6</v>
@@ -7967,34 +7999,34 @@
         <v>13</v>
       </c>
       <c r="D81" s="23">
-        <v>0.73450000000000004</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="E81" s="16" t="s">
         <v>13</v>
       </c>
       <c r="F81" s="23">
-        <v>0.6341</v>
+        <v>0.63360000000000005</v>
       </c>
       <c r="G81" s="23">
-        <v>0.36170000000000002</v>
+        <v>0.3614</v>
       </c>
       <c r="H81" s="23" t="s">
         <v>7</v>
       </c>
       <c r="I81" s="23">
-        <v>89.48</v>
-      </c>
-      <c r="J81" s="52">
-        <v>0.34050000000000002</v>
+        <v>89.49</v>
+      </c>
+      <c r="J81" s="55">
+        <v>0.34210000000000002</v>
       </c>
       <c r="K81" s="23">
-        <v>0.26529999999999998</v>
+        <v>0.2646</v>
       </c>
       <c r="L81" s="23">
-        <v>-6.85</v>
+        <v>-6.8719999999999999</v>
       </c>
       <c r="M81" s="23">
-        <v>0.55349999999999999</v>
+        <v>0.55359999999999998</v>
       </c>
       <c r="N81" s="41">
         <v>7</v>
@@ -8019,37 +8051,37 @@
         <v>0</v>
       </c>
       <c r="C82" s="23">
-        <v>6.1400000000000003E-2</v>
+        <v>6.1199999999999997E-2</v>
       </c>
       <c r="D82" s="23">
-        <v>0.47370000000000001</v>
+        <v>0.47410000000000002</v>
       </c>
       <c r="E82" s="16" t="s">
         <v>13</v>
       </c>
       <c r="F82" s="23">
-        <v>0.55689999999999995</v>
+        <v>0.5575</v>
       </c>
       <c r="G82" s="23">
-        <v>0.31909999999999999</v>
+        <v>0.3196</v>
       </c>
       <c r="H82" s="23" t="s">
         <v>7</v>
       </c>
       <c r="I82" s="23">
-        <v>90.51</v>
-      </c>
-      <c r="J82" s="52">
-        <v>0.61709999999999998</v>
+        <v>90.52</v>
+      </c>
+      <c r="J82" s="55">
+        <v>0.61460000000000004</v>
       </c>
       <c r="K82" s="23">
-        <v>0.43309999999999998</v>
+        <v>0.43280000000000002</v>
       </c>
       <c r="L82" s="23">
-        <v>5.4989999999999997</v>
+        <v>5.476</v>
       </c>
       <c r="M82" s="23">
-        <v>0.54800000000000004</v>
+        <v>0.54830000000000001</v>
       </c>
       <c r="N82" s="41">
         <v>8</v>
@@ -8077,34 +8109,34 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="D83" s="23">
-        <v>0.37830000000000003</v>
+        <v>0.37909999999999999</v>
       </c>
       <c r="E83" s="23">
         <v>1E-4</v>
       </c>
       <c r="F83" s="23">
-        <v>0.67220000000000002</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="G83" s="23">
-        <v>0.1396</v>
+        <v>0.13950000000000001</v>
       </c>
       <c r="H83" s="23" t="s">
         <v>7</v>
       </c>
       <c r="I83" s="23">
-        <v>93.8</v>
+        <v>93.81</v>
       </c>
       <c r="J83" s="23">
-        <v>2.2100000000000002E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="K83" s="23">
-        <v>5.6399999999999999E-2</v>
+        <v>5.6800000000000003E-2</v>
       </c>
       <c r="L83" s="23">
-        <v>4.0529999999999999</v>
+        <v>4.0430000000000001</v>
       </c>
       <c r="M83" s="23">
-        <v>0.71389999999999998</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="N83" s="41">
         <v>9</v>
@@ -8123,18 +8155,18 @@
     </row>
     <row r="85" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A85" s="43"/>
-      <c r="B85" s="74" t="s">
+      <c r="B85" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="C85" s="75"/>
-      <c r="D85" s="75"/>
-      <c r="E85" s="75"/>
-      <c r="F85" s="75"/>
-      <c r="G85" s="75"/>
-      <c r="H85" s="75"/>
-      <c r="I85" s="75"/>
-      <c r="J85" s="75"/>
-      <c r="K85" s="76"/>
+      <c r="C85" s="79"/>
+      <c r="D85" s="79"/>
+      <c r="E85" s="79"/>
+      <c r="F85" s="79"/>
+      <c r="G85" s="79"/>
+      <c r="H85" s="79"/>
+      <c r="I85" s="79"/>
+      <c r="J85" s="79"/>
+      <c r="K85" s="80"/>
       <c r="L85" s="43"/>
       <c r="M85" s="43"/>
       <c r="O85" s="43"/>
@@ -8143,22 +8175,22 @@
     </row>
     <row r="86" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="43"/>
-      <c r="B86" s="71" t="s">
-        <v>338</v>
-      </c>
-      <c r="C86" s="72"/>
-      <c r="D86" s="72"/>
-      <c r="E86" s="72"/>
-      <c r="F86" s="72"/>
-      <c r="G86" s="72"/>
-      <c r="H86" s="72"/>
-      <c r="I86" s="72"/>
-      <c r="J86" s="72"/>
-      <c r="K86" s="73"/>
-      <c r="L86" s="61" t="s">
+      <c r="B86" s="75" t="s">
+        <v>214</v>
+      </c>
+      <c r="C86" s="76"/>
+      <c r="D86" s="76"/>
+      <c r="E86" s="76"/>
+      <c r="F86" s="76"/>
+      <c r="G86" s="76"/>
+      <c r="H86" s="76"/>
+      <c r="I86" s="76"/>
+      <c r="J86" s="76"/>
+      <c r="K86" s="77"/>
+      <c r="L86" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="M86" s="61"/>
+      <c r="M86" s="65"/>
       <c r="N86"/>
       <c r="O86" s="43"/>
       <c r="P86" s="43"/>
@@ -8245,53 +8277,53 @@
       <c r="AD87" s="22"/>
     </row>
     <row r="88" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="51">
+      <c r="A88" s="15">
         <v>1</v>
       </c>
-      <c r="B88" s="23">
+      <c r="B88" s="15">
         <v>0</v>
       </c>
-      <c r="C88" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D88" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E88" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F88" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H88" s="23" t="s">
+      <c r="C88" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I88" s="23">
+      <c r="I88" s="15">
         <v>86.66</v>
       </c>
-      <c r="J88" s="24">
+      <c r="J88" s="58">
         <v>1.04E-2</v>
       </c>
-      <c r="K88" s="23">
+      <c r="K88" s="15">
         <v>0.19120000000000001</v>
       </c>
-      <c r="L88" s="23">
-        <v>-5.819</v>
-      </c>
-      <c r="M88" s="23">
+      <c r="L88" s="15">
+        <v>-5.8170000000000002</v>
+      </c>
+      <c r="M88" s="15">
         <v>0.747</v>
       </c>
       <c r="N88" s="53">
         <v>1</v>
       </c>
       <c r="O88" s="53" t="s">
-        <v>337</v>
+        <v>531</v>
       </c>
       <c r="P88" s="53" t="s">
-        <v>525</v>
+        <v>347</v>
       </c>
       <c r="Q88" s="54" t="s">
         <v>13</v>
@@ -8335,17 +8367,17 @@
       <c r="I89" s="23">
         <v>90.76</v>
       </c>
-      <c r="J89" s="52">
-        <v>0.27689999999999998</v>
+      <c r="J89" s="56">
+        <v>0.27710000000000001</v>
       </c>
       <c r="K89" s="23">
-        <v>0.37790000000000001</v>
+        <v>0.37780000000000002</v>
       </c>
       <c r="L89" s="23">
         <v>22.8</v>
       </c>
       <c r="M89" s="23">
-        <v>0.40439999999999998</v>
+        <v>0.4042</v>
       </c>
       <c r="N89" s="23">
         <v>2</v>
@@ -8375,7 +8407,7 @@
         <v>13</v>
       </c>
       <c r="D90" s="24">
-        <v>0.39560000000000001</v>
+        <v>0.3957</v>
       </c>
       <c r="E90" s="16" t="s">
         <v>13</v>
@@ -8392,14 +8424,14 @@
       <c r="I90" s="23">
         <v>86.93</v>
       </c>
-      <c r="J90" s="52">
+      <c r="J90" s="56">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="K90" s="23">
         <v>0.17549999999999999</v>
       </c>
       <c r="L90" s="23">
-        <v>-7.1870000000000003</v>
+        <v>-7.1840000000000002</v>
       </c>
       <c r="M90" s="23">
         <v>0.73480000000000001</v>
@@ -8449,14 +8481,14 @@
       <c r="I91" s="23">
         <v>88.54</v>
       </c>
-      <c r="J91" s="52">
+      <c r="J91" s="56">
         <v>3.4599999999999999E-2</v>
       </c>
       <c r="K91" s="23">
         <v>6.59E-2</v>
       </c>
       <c r="L91" s="23">
-        <v>-8.0020000000000007</v>
+        <v>-8</v>
       </c>
       <c r="M91" s="23">
         <v>0.76949999999999996</v>
@@ -8505,7 +8537,7 @@
       <c r="I92" s="23">
         <v>91.39</v>
       </c>
-      <c r="J92" s="52">
+      <c r="J92" s="56">
         <v>0.67530000000000001</v>
       </c>
       <c r="K92" s="23">
@@ -8515,7 +8547,7 @@
         <v>21.2</v>
       </c>
       <c r="M92" s="23">
-        <v>0.48280000000000001</v>
+        <v>0.48270000000000002</v>
       </c>
       <c r="N92" s="41">
         <v>5</v>
@@ -8551,7 +8583,7 @@
         <v>13</v>
       </c>
       <c r="F93" s="23">
-        <v>0.58250000000000002</v>
+        <v>0.58240000000000003</v>
       </c>
       <c r="G93" s="23">
         <v>0.1376</v>
@@ -8562,8 +8594,8 @@
       <c r="I93" s="23">
         <v>92.28</v>
       </c>
-      <c r="J93" s="52">
-        <v>0.16320000000000001</v>
+      <c r="J93" s="56">
+        <v>0.1633</v>
       </c>
       <c r="K93" s="23">
         <v>0.3231</v>
@@ -8572,7 +8604,7 @@
         <v>16.739999999999998</v>
       </c>
       <c r="M93" s="23">
-        <v>0.66469999999999996</v>
+        <v>0.66459999999999997</v>
       </c>
       <c r="N93" s="41">
         <v>6</v>
@@ -8607,10 +8639,10 @@
         <v>13</v>
       </c>
       <c r="F94" s="23">
-        <v>0.58209999999999995</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="G94" s="23">
-        <v>0.17649999999999999</v>
+        <v>0.1764</v>
       </c>
       <c r="H94" s="23" t="s">
         <v>7</v>
@@ -8618,14 +8650,14 @@
       <c r="I94" s="23">
         <v>88.58</v>
       </c>
-      <c r="J94" s="52">
+      <c r="J94" s="56">
         <v>2.8299999999999999E-2</v>
       </c>
       <c r="K94" s="23">
         <v>6.6699999999999995E-2</v>
       </c>
       <c r="L94" s="23">
-        <v>-8.1020000000000003</v>
+        <v>-8.1</v>
       </c>
       <c r="M94" s="23">
         <v>0.75680000000000003</v>
@@ -8657,13 +8689,13 @@
         <v>1E-4</v>
       </c>
       <c r="D95" s="23">
-        <v>0.28220000000000001</v>
+        <v>0.2823</v>
       </c>
       <c r="E95" s="16" t="s">
         <v>13</v>
       </c>
       <c r="F95" s="23">
-        <v>0.63119999999999998</v>
+        <v>0.63109999999999999</v>
       </c>
       <c r="G95" s="23">
         <v>0.18629999999999999</v>
@@ -8674,17 +8706,17 @@
       <c r="I95" s="23">
         <v>92.54</v>
       </c>
-      <c r="J95" s="52">
+      <c r="J95" s="56">
         <v>0.15920000000000001</v>
       </c>
       <c r="K95" s="23">
         <v>0.29260000000000003</v>
       </c>
       <c r="L95" s="23">
-        <v>17.079999999999998</v>
+        <v>17.09</v>
       </c>
       <c r="M95" s="23">
-        <v>0.63570000000000004</v>
+        <v>0.63560000000000005</v>
       </c>
       <c r="N95" s="41">
         <v>8</v>
@@ -8713,13 +8745,13 @@
         <v>0</v>
       </c>
       <c r="D96" s="23">
-        <v>0.2046</v>
+        <v>0.20469999999999999</v>
       </c>
       <c r="E96" s="23">
         <v>2.07E-2</v>
       </c>
       <c r="F96" s="23">
-        <v>0.64</v>
+        <v>0.6401</v>
       </c>
       <c r="G96" s="23">
         <v>0.33710000000000001</v>
@@ -8731,7 +8763,7 @@
         <v>93.59</v>
       </c>
       <c r="J96" s="23">
-        <v>0.42609999999999998</v>
+        <v>0.42630000000000001</v>
       </c>
       <c r="K96" s="23">
         <v>7.7999999999999996E-3</v>
@@ -8740,7 +8772,7 @@
         <v>18.04</v>
       </c>
       <c r="M96" s="23">
-        <v>0.50670000000000004</v>
+        <v>0.50649999999999995</v>
       </c>
       <c r="N96" s="41">
         <v>9</v>
@@ -8956,14 +8988,14 @@
   <dimension ref="A1:A529"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
-        <v>123</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -8983,12 +9015,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -8996,12 +9028,12 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -9009,27 +9041,27 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
-        <v>177</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -9037,12 +9069,12 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -9050,7 +9082,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -9058,22 +9090,22 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
-        <v>179</v>
+        <v>351</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="50" t="s">
-        <v>180</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -9081,47 +9113,47 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
-        <v>181</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="50" t="s">
-        <v>182</v>
+        <v>354</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="50" t="s">
-        <v>183</v>
+        <v>355</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="50" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
-        <v>185</v>
+        <v>356</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="50" t="s">
-        <v>186</v>
+        <v>357</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -9132,37 +9164,37 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="50" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="50" t="s">
-        <v>187</v>
+        <v>358</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="50" t="s">
-        <v>188</v>
+        <v>359</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
@@ -9175,22 +9207,22 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="50" t="s">
-        <v>189</v>
+        <v>360</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="50" t="s">
-        <v>190</v>
+        <v>361</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="50" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
@@ -9198,7 +9230,7 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
@@ -9218,12 +9250,12 @@
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
@@ -9231,12 +9263,12 @@
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
@@ -9244,27 +9276,27 @@
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="50" t="s">
-        <v>177</v>
+        <v>350</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="50" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
@@ -9272,12 +9304,12 @@
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
@@ -9285,7 +9317,7 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
@@ -9293,27 +9325,27 @@
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="50" t="s">
-        <v>192</v>
+        <v>362</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="50" t="s">
-        <v>193</v>
+        <v>363</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="50" t="s">
-        <v>194</v>
+        <v>364</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
@@ -9321,47 +9353,47 @@
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="50" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="50" t="s">
-        <v>196</v>
+        <v>365</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="50" t="s">
-        <v>197</v>
+        <v>366</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="50" t="s">
-        <v>198</v>
+        <v>367</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="50" t="s">
-        <v>199</v>
+        <v>368</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="50" t="s">
-        <v>200</v>
+        <v>369</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
@@ -9369,22 +9401,22 @@
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
@@ -9392,37 +9424,37 @@
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="50" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="50" t="s">
-        <v>201</v>
+        <v>370</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="50" t="s">
-        <v>188</v>
+        <v>359</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
@@ -9435,22 +9467,22 @@
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="50" t="s">
-        <v>202</v>
+        <v>371</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="50" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="50" t="s">
-        <v>204</v>
+        <v>372</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
@@ -9458,7 +9490,7 @@
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
@@ -9478,12 +9510,12 @@
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="49" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
@@ -9491,12 +9523,12 @@
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
@@ -9504,27 +9536,27 @@
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="50" t="s">
-        <v>177</v>
+        <v>350</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="50" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
@@ -9532,12 +9564,12 @@
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
@@ -9545,7 +9577,7 @@
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
@@ -9553,27 +9585,27 @@
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="50" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="50" t="s">
-        <v>206</v>
+        <v>373</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="50" t="s">
-        <v>207</v>
+        <v>374</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="50" t="s">
-        <v>208</v>
+        <v>375</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
@@ -9581,47 +9613,47 @@
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="50" t="s">
-        <v>209</v>
+        <v>376</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="50" t="s">
-        <v>210</v>
+        <v>377</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="50" t="s">
-        <v>211</v>
+        <v>378</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="50" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="50" t="s">
-        <v>213</v>
+        <v>379</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="50" t="s">
-        <v>214</v>
+        <v>380</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
@@ -9629,22 +9661,22 @@
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="50" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="50" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
@@ -9652,37 +9684,37 @@
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="50" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="50" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="50" t="s">
-        <v>188</v>
+        <v>359</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
@@ -9695,22 +9727,22 @@
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="50" t="s">
-        <v>218</v>
+        <v>381</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="50" t="s">
-        <v>219</v>
+        <v>382</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="50" t="s">
-        <v>220</v>
+        <v>383</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
@@ -9718,7 +9750,7 @@
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
@@ -9738,12 +9770,12 @@
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
@@ -9751,12 +9783,12 @@
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
@@ -9764,27 +9796,27 @@
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="50" t="s">
-        <v>177</v>
+        <v>350</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="50" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
@@ -9792,12 +9824,12 @@
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
@@ -9805,7 +9837,7 @@
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
@@ -9813,32 +9845,32 @@
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="50" t="s">
-        <v>221</v>
+        <v>384</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="50" t="s">
-        <v>222</v>
+        <v>385</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="50" t="s">
-        <v>223</v>
+        <v>386</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="50" t="s">
-        <v>224</v>
+        <v>387</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
@@ -9846,47 +9878,47 @@
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="50" t="s">
-        <v>225</v>
+        <v>388</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="50" t="s">
-        <v>226</v>
+        <v>389</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="50" t="s">
-        <v>227</v>
+        <v>390</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="50" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="50" t="s">
-        <v>229</v>
+        <v>391</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="50" t="s">
-        <v>230</v>
+        <v>392</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
@@ -9894,27 +9926,27 @@
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="50" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="50" t="s">
-        <v>232</v>
+        <v>188</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="50" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
@@ -9922,37 +9954,37 @@
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="50" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="50" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="50" t="s">
-        <v>188</v>
+        <v>359</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
@@ -9965,22 +9997,22 @@
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="50" t="s">
-        <v>235</v>
+        <v>393</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="50" t="s">
-        <v>236</v>
+        <v>394</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="50" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
@@ -9988,7 +10020,7 @@
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
@@ -10008,12 +10040,12 @@
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
@@ -10021,12 +10053,12 @@
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
@@ -10034,27 +10066,27 @@
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="50" t="s">
-        <v>177</v>
+        <v>350</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="50" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
@@ -10062,12 +10094,12 @@
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
@@ -10075,7 +10107,7 @@
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
@@ -10083,32 +10115,32 @@
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="50" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="50" t="s">
-        <v>238</v>
+        <v>395</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="50" t="s">
-        <v>239</v>
+        <v>396</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="50" t="s">
-        <v>240</v>
+        <v>397</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="50" t="s">
-        <v>241</v>
+        <v>398</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
@@ -10116,47 +10148,47 @@
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="50" t="s">
-        <v>242</v>
+        <v>192</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="50" t="s">
-        <v>243</v>
+        <v>399</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="50" t="s">
-        <v>244</v>
+        <v>400</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="50" t="s">
-        <v>245</v>
+        <v>193</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="50" t="s">
-        <v>246</v>
+        <v>401</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="50" t="s">
-        <v>247</v>
+        <v>402</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
@@ -10164,27 +10196,27 @@
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="50" t="s">
-        <v>248</v>
+        <v>194</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="50" t="s">
-        <v>249</v>
+        <v>195</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="50" t="s">
-        <v>250</v>
+        <v>196</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
@@ -10192,37 +10224,37 @@
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="50" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="50" t="s">
-        <v>251</v>
+        <v>403</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="50" t="s">
-        <v>188</v>
+        <v>359</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
@@ -10235,22 +10267,22 @@
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="50" t="s">
-        <v>252</v>
+        <v>404</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="50" t="s">
-        <v>253</v>
+        <v>197</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="50" t="s">
-        <v>254</v>
+        <v>405</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
@@ -10258,7 +10290,7 @@
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
@@ -10278,12 +10310,12 @@
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
@@ -10291,12 +10323,12 @@
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
@@ -10304,27 +10336,27 @@
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="50" t="s">
-        <v>177</v>
+        <v>350</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="50" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
@@ -10332,12 +10364,12 @@
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
@@ -10345,7 +10377,7 @@
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
@@ -10353,37 +10385,37 @@
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="50" t="s">
-        <v>255</v>
+        <v>406</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="50" t="s">
-        <v>256</v>
+        <v>407</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="50" t="s">
-        <v>257</v>
+        <v>408</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="50" t="s">
-        <v>258</v>
+        <v>409</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="50" t="s">
-        <v>259</v>
+        <v>410</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
@@ -10391,47 +10423,47 @@
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="50" t="s">
-        <v>260</v>
+        <v>411</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="50" t="s">
-        <v>261</v>
+        <v>412</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="50" t="s">
-        <v>262</v>
+        <v>413</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="50" t="s">
-        <v>263</v>
+        <v>414</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="50" t="s">
-        <v>264</v>
+        <v>415</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
@@ -10439,32 +10471,32 @@
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="50" t="s">
-        <v>265</v>
+        <v>198</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="50" t="s">
-        <v>266</v>
+        <v>416</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="50" t="s">
-        <v>267</v>
+        <v>417</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="50" t="s">
-        <v>268</v>
+        <v>418</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
@@ -10472,37 +10504,37 @@
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="50" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="50" t="s">
-        <v>269</v>
+        <v>419</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="50" t="s">
-        <v>188</v>
+        <v>359</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
@@ -10515,22 +10547,22 @@
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="50" t="s">
-        <v>270</v>
+        <v>420</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="50" t="s">
-        <v>271</v>
+        <v>199</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="50" t="s">
-        <v>272</v>
+        <v>421</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
@@ -10538,7 +10570,7 @@
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
@@ -10558,12 +10590,12 @@
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
@@ -10571,12 +10603,12 @@
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
@@ -10584,27 +10616,27 @@
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="50" t="s">
-        <v>177</v>
+        <v>350</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="50" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
@@ -10612,12 +10644,12 @@
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" s="50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
@@ -10625,7 +10657,7 @@
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
@@ -10633,37 +10665,37 @@
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="50" t="s">
-        <v>273</v>
+        <v>422</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="50" t="s">
-        <v>274</v>
+        <v>423</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="50" t="s">
-        <v>275</v>
+        <v>424</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="50" t="s">
-        <v>276</v>
+        <v>425</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="50" t="s">
-        <v>277</v>
+        <v>426</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
@@ -10671,47 +10703,47 @@
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="50" t="s">
-        <v>278</v>
+        <v>427</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="50" t="s">
-        <v>279</v>
+        <v>428</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="50" t="s">
-        <v>280</v>
+        <v>429</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="50" t="s">
-        <v>281</v>
+        <v>430</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="50" t="s">
-        <v>282</v>
+        <v>431</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="50" t="s">
-        <v>283</v>
+        <v>432</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
@@ -10719,32 +10751,32 @@
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="50" t="s">
-        <v>284</v>
+        <v>200</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="50" t="s">
-        <v>285</v>
+        <v>201</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="50" t="s">
-        <v>286</v>
+        <v>202</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="50" t="s">
-        <v>287</v>
+        <v>433</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
@@ -10752,37 +10784,37 @@
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="50" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="50" t="s">
-        <v>288</v>
+        <v>203</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="50" t="s">
-        <v>289</v>
+        <v>434</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="50" t="s">
-        <v>290</v>
+        <v>435</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
@@ -10795,22 +10827,22 @@
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="50" t="s">
-        <v>291</v>
+        <v>436</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="50" t="s">
-        <v>292</v>
+        <v>437</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="50" t="s">
-        <v>293</v>
+        <v>438</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
@@ -10818,7 +10850,7 @@
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
@@ -10838,12 +10870,12 @@
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" s="50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
@@ -10851,12 +10883,12 @@
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
@@ -10864,27 +10896,27 @@
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" s="50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="50" t="s">
-        <v>177</v>
+        <v>350</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="50" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
@@ -10892,12 +10924,12 @@
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" s="50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
@@ -10905,7 +10937,7 @@
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
@@ -10913,42 +10945,42 @@
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="50" t="s">
-        <v>294</v>
+        <v>439</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="50" t="s">
-        <v>295</v>
+        <v>440</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="50" t="s">
-        <v>296</v>
+        <v>441</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="50" t="s">
-        <v>297</v>
+        <v>442</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="50" t="s">
-        <v>298</v>
+        <v>443</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="50" t="s">
-        <v>299</v>
+        <v>444</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
@@ -10956,47 +10988,47 @@
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="50" t="s">
-        <v>300</v>
+        <v>445</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="50" t="s">
-        <v>301</v>
+        <v>446</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="50" t="s">
-        <v>302</v>
+        <v>447</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="50" t="s">
-        <v>136</v>
+        <v>448</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="50" t="s">
-        <v>303</v>
+        <v>449</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="50" t="s">
-        <v>304</v>
+        <v>450</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
@@ -11004,37 +11036,37 @@
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" s="50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="50" t="s">
-        <v>305</v>
+        <v>204</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="50" t="s">
-        <v>306</v>
+        <v>205</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="50" t="s">
-        <v>307</v>
+        <v>206</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="50" t="s">
-        <v>308</v>
+        <v>451</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="50" t="s">
-        <v>309</v>
+        <v>207</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
@@ -11042,37 +11074,37 @@
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" s="50" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" s="50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" s="50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="50" t="s">
-        <v>310</v>
+        <v>452</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="50" t="s">
-        <v>188</v>
+        <v>359</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
@@ -11085,22 +11117,22 @@
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" s="50" t="s">
-        <v>311</v>
+        <v>453</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" s="50" t="s">
-        <v>312</v>
+        <v>208</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" s="50" t="s">
-        <v>313</v>
+        <v>454</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
@@ -11108,7 +11140,7 @@
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" s="49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
@@ -11128,12 +11160,12 @@
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="49" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" s="50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
@@ -11141,12 +11173,12 @@
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" s="50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
@@ -11154,27 +11186,27 @@
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="50" t="s">
-        <v>177</v>
+        <v>350</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="50" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
@@ -11182,12 +11214,12 @@
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" s="50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
@@ -11195,7 +11227,7 @@
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
@@ -11203,47 +11235,47 @@
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" s="50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" s="50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="50" t="s">
-        <v>314</v>
+        <v>455</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="50" t="s">
-        <v>315</v>
+        <v>456</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="50" t="s">
-        <v>316</v>
+        <v>457</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="50" t="s">
-        <v>317</v>
+        <v>458</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="50" t="s">
-        <v>318</v>
+        <v>459</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="50" t="s">
-        <v>319</v>
+        <v>460</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="50" t="s">
-        <v>320</v>
+        <v>461</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
@@ -11251,47 +11283,47 @@
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" s="50" t="s">
-        <v>321</v>
+        <v>462</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="50" t="s">
-        <v>322</v>
+        <v>463</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="50" t="s">
-        <v>323</v>
+        <v>464</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" s="50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" s="50" t="s">
-        <v>324</v>
+        <v>209</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" s="50" t="s">
-        <v>325</v>
+        <v>465</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" s="50" t="s">
-        <v>326</v>
+        <v>466</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
@@ -11299,42 +11331,42 @@
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" s="50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" s="50" t="s">
-        <v>327</v>
+        <v>210</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" s="50" t="s">
-        <v>328</v>
+        <v>467</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" s="50" t="s">
-        <v>307</v>
+        <v>206</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" s="50" t="s">
-        <v>329</v>
+        <v>468</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" s="50" t="s">
-        <v>330</v>
+        <v>469</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" s="50" t="s">
-        <v>331</v>
+        <v>211</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
@@ -11342,37 +11374,37 @@
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" s="50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" s="50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" s="50" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" s="50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" s="50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" s="50" t="s">
-        <v>332</v>
+        <v>470</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" s="50" t="s">
-        <v>188</v>
+        <v>359</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
@@ -11385,22 +11417,22 @@
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" s="50" t="s">
-        <v>333</v>
+        <v>471</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" s="50" t="s">
-        <v>334</v>
+        <v>472</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" s="50" t="s">
-        <v>335</v>
+        <v>473</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
@@ -11429,14 +11461,14 @@
   <dimension ref="A1:A528"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>339</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -11456,12 +11488,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>340</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -11469,12 +11501,12 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -11482,27 +11514,27 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>341</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>342</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>343</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>344</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>345</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -11510,12 +11542,12 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -11523,7 +11555,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -11531,22 +11563,22 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>346</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>347</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -11554,47 +11586,47 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>348</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>349</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>350</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>351</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>352</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>353</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -11605,37 +11637,37 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>354</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>355</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>356</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
@@ -11648,22 +11680,22 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>357</v>
+        <v>476</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>358</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>359</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
@@ -11671,7 +11703,7 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>360</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
@@ -11691,12 +11723,12 @@
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>361</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
@@ -11704,12 +11736,12 @@
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
@@ -11717,27 +11749,27 @@
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>341</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>342</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>343</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>344</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>345</v>
+        <v>221</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
@@ -11745,12 +11777,12 @@
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
@@ -11758,7 +11790,7 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
@@ -11766,27 +11798,27 @@
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>362</v>
+        <v>477</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>363</v>
+        <v>237</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>364</v>
+        <v>238</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
@@ -11794,47 +11826,47 @@
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>365</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>366</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>367</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>368</v>
+        <v>478</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>369</v>
+        <v>479</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>370</v>
+        <v>480</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
@@ -11842,22 +11874,22 @@
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
@@ -11865,37 +11897,37 @@
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>371</v>
+        <v>242</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>372</v>
+        <v>243</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
@@ -11908,22 +11940,22 @@
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>373</v>
+        <v>244</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>374</v>
+        <v>245</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>375</v>
+        <v>481</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
@@ -11931,7 +11963,7 @@
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>376</v>
+        <v>246</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
@@ -11951,12 +11983,12 @@
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>377</v>
+        <v>247</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
@@ -11964,12 +11996,12 @@
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
@@ -11977,27 +12009,27 @@
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>341</v>
+        <v>217</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>342</v>
+        <v>218</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>343</v>
+        <v>219</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>344</v>
+        <v>220</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>345</v>
+        <v>221</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
@@ -12005,12 +12037,12 @@
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
@@ -12018,7 +12050,7 @@
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
@@ -12026,27 +12058,27 @@
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>378</v>
+        <v>482</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>379</v>
+        <v>483</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>380</v>
+        <v>484</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
@@ -12054,47 +12086,47 @@
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>381</v>
+        <v>248</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>382</v>
+        <v>249</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>383</v>
+        <v>485</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>384</v>
+        <v>250</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>385</v>
+        <v>251</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>386</v>
+        <v>252</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
@@ -12102,22 +12134,22 @@
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>387</v>
+        <v>253</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>388</v>
+        <v>254</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>389</v>
+        <v>255</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
@@ -12125,37 +12157,37 @@
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>390</v>
+        <v>256</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>391</v>
+        <v>257</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>392</v>
+        <v>258</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
@@ -12168,22 +12200,22 @@
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>393</v>
+        <v>486</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>394</v>
+        <v>487</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>395</v>
+        <v>259</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
@@ -12191,7 +12223,7 @@
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>396</v>
+        <v>260</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
@@ -12211,12 +12243,12 @@
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>397</v>
+        <v>261</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
@@ -12224,12 +12256,12 @@
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
@@ -12237,27 +12269,27 @@
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>341</v>
+        <v>217</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>342</v>
+        <v>218</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>343</v>
+        <v>219</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>344</v>
+        <v>220</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>345</v>
+        <v>221</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
@@ -12265,12 +12297,12 @@
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
@@ -12278,7 +12310,7 @@
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
@@ -12286,32 +12318,32 @@
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>398</v>
+        <v>488</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>399</v>
+        <v>489</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>400</v>
+        <v>490</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>401</v>
+        <v>491</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
@@ -12319,47 +12351,47 @@
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>402</v>
+        <v>262</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>403</v>
+        <v>263</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>404</v>
+        <v>264</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>405</v>
+        <v>265</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>406</v>
+        <v>266</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>407</v>
+        <v>267</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
@@ -12367,27 +12399,27 @@
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>408</v>
+        <v>268</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>409</v>
+        <v>269</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>410</v>
+        <v>270</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
@@ -12395,37 +12427,37 @@
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>411</v>
+        <v>271</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>412</v>
+        <v>492</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>413</v>
+        <v>272</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
@@ -12438,22 +12470,22 @@
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>414</v>
+        <v>493</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>415</v>
+        <v>273</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>416</v>
+        <v>274</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
@@ -12461,7 +12493,7 @@
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>417</v>
+        <v>275</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
@@ -12481,12 +12513,12 @@
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>418</v>
+        <v>276</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
@@ -12494,12 +12526,12 @@
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
@@ -12507,27 +12539,27 @@
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>341</v>
+        <v>217</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>342</v>
+        <v>218</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>343</v>
+        <v>219</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>344</v>
+        <v>220</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>345</v>
+        <v>221</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
@@ -12535,12 +12567,12 @@
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
@@ -12548,7 +12580,7 @@
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
@@ -12556,32 +12588,32 @@
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
-        <v>419</v>
+        <v>494</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
-        <v>420</v>
+        <v>495</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
-        <v>421</v>
+        <v>277</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>422</v>
+        <v>496</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
@@ -12589,47 +12621,47 @@
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
-        <v>423</v>
+        <v>278</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
-        <v>424</v>
+        <v>279</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
-        <v>425</v>
+        <v>280</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>245</v>
+        <v>193</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
-        <v>426</v>
+        <v>281</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>427</v>
+        <v>282</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
@@ -12637,27 +12669,27 @@
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>428</v>
+        <v>283</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
-        <v>429</v>
+        <v>284</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>430</v>
+        <v>285</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
@@ -12665,37 +12697,37 @@
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
-        <v>431</v>
+        <v>286</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
-        <v>372</v>
+        <v>243</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
@@ -12708,22 +12740,22 @@
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>432</v>
+        <v>287</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
-        <v>433</v>
+        <v>288</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
-        <v>434</v>
+        <v>497</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
@@ -12731,7 +12763,7 @@
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
-        <v>435</v>
+        <v>289</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
@@ -12751,12 +12783,12 @@
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
-        <v>436</v>
+        <v>290</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
@@ -12764,12 +12796,12 @@
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
@@ -12777,27 +12809,27 @@
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
-        <v>341</v>
+        <v>217</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
-        <v>342</v>
+        <v>218</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
-        <v>343</v>
+        <v>219</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
-        <v>344</v>
+        <v>220</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
-        <v>345</v>
+        <v>221</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
@@ -12805,12 +12837,12 @@
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
@@ -12818,7 +12850,7 @@
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
@@ -12826,37 +12858,37 @@
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
-        <v>437</v>
+        <v>498</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
-        <v>438</v>
+        <v>499</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
-        <v>439</v>
+        <v>500</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
-        <v>440</v>
+        <v>501</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
-        <v>441</v>
+        <v>502</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
@@ -12864,47 +12896,47 @@
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
-        <v>442</v>
+        <v>291</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
-        <v>443</v>
+        <v>292</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
-        <v>444</v>
+        <v>293</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
-        <v>445</v>
+        <v>294</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
-        <v>446</v>
+        <v>503</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
-        <v>447</v>
+        <v>295</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
@@ -12912,32 +12944,32 @@
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
-        <v>448</v>
+        <v>296</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
-        <v>449</v>
+        <v>297</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
-        <v>450</v>
+        <v>298</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
-        <v>451</v>
+        <v>299</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
@@ -12945,37 +12977,37 @@
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
-        <v>452</v>
+        <v>300</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
-        <v>372</v>
+        <v>243</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
@@ -12988,22 +13020,22 @@
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
-        <v>453</v>
+        <v>301</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
-        <v>454</v>
+        <v>302</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
@@ -13011,7 +13043,7 @@
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="4" t="s">
-        <v>456</v>
+        <v>303</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
@@ -13031,12 +13063,12 @@
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="4" t="s">
-        <v>457</v>
+        <v>304</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
@@ -13044,12 +13076,12 @@
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
@@ -13057,27 +13089,27 @@
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
-        <v>341</v>
+        <v>217</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
-        <v>342</v>
+        <v>218</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
-        <v>343</v>
+        <v>219</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
-        <v>344</v>
+        <v>220</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
-        <v>345</v>
+        <v>221</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
@@ -13085,12 +13117,12 @@
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
@@ -13098,7 +13130,7 @@
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
@@ -13106,37 +13138,37 @@
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
-        <v>458</v>
+        <v>505</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
-        <v>459</v>
+        <v>506</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
-        <v>460</v>
+        <v>507</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
-        <v>461</v>
+        <v>508</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
-        <v>462</v>
+        <v>509</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
@@ -13144,47 +13176,47 @@
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
-        <v>463</v>
+        <v>305</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
-        <v>464</v>
+        <v>306</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
-        <v>465</v>
+        <v>307</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
-        <v>466</v>
+        <v>308</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
-        <v>467</v>
+        <v>309</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
-        <v>468</v>
+        <v>310</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
@@ -13192,32 +13224,32 @@
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
-        <v>469</v>
+        <v>311</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
-        <v>470</v>
+        <v>312</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
-        <v>471</v>
+        <v>313</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
-        <v>472</v>
+        <v>314</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
@@ -13225,37 +13257,37 @@
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
-        <v>390</v>
+        <v>256</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
-        <v>473</v>
+        <v>315</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
-        <v>392</v>
+        <v>258</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
@@ -13268,22 +13300,22 @@
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="3" t="s">
-        <v>474</v>
+        <v>510</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
-        <v>475</v>
+        <v>316</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="3" t="s">
-        <v>476</v>
+        <v>317</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
@@ -13291,7 +13323,7 @@
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="4" t="s">
-        <v>477</v>
+        <v>318</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
@@ -13311,12 +13343,12 @@
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="4" t="s">
-        <v>478</v>
+        <v>319</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
@@ -13324,12 +13356,12 @@
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
@@ -13337,27 +13369,27 @@
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
-        <v>341</v>
+        <v>217</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" s="3" t="s">
-        <v>342</v>
+        <v>218</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
-        <v>343</v>
+        <v>219</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
-        <v>344</v>
+        <v>220</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
-        <v>345</v>
+        <v>221</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
@@ -13365,12 +13397,12 @@
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
@@ -13378,7 +13410,7 @@
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
@@ -13386,42 +13418,42 @@
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="3" t="s">
-        <v>479</v>
+        <v>511</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
-        <v>480</v>
+        <v>512</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="3" t="s">
-        <v>481</v>
+        <v>513</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="3" t="s">
-        <v>482</v>
+        <v>514</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
-        <v>483</v>
+        <v>515</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="3" t="s">
-        <v>484</v>
+        <v>516</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
@@ -13429,47 +13461,47 @@
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="3" t="s">
-        <v>485</v>
+        <v>517</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="3" t="s">
-        <v>486</v>
+        <v>320</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="3" t="s">
-        <v>487</v>
+        <v>518</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="3" t="s">
-        <v>488</v>
+        <v>321</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="3" t="s">
-        <v>489</v>
+        <v>322</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="3" t="s">
-        <v>490</v>
+        <v>323</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
@@ -13477,37 +13509,37 @@
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="3" t="s">
-        <v>491</v>
+        <v>324</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="3" t="s">
-        <v>492</v>
+        <v>325</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="3" t="s">
-        <v>493</v>
+        <v>326</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="3" t="s">
-        <v>494</v>
+        <v>327</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="3" t="s">
-        <v>495</v>
+        <v>328</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
@@ -13515,37 +13547,37 @@
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="3" t="s">
-        <v>496</v>
+        <v>329</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="3" t="s">
-        <v>372</v>
+        <v>243</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
@@ -13558,22 +13590,22 @@
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" s="3" t="s">
-        <v>497</v>
+        <v>519</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" s="3" t="s">
-        <v>498</v>
+        <v>330</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" s="3" t="s">
-        <v>499</v>
+        <v>520</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
@@ -13581,7 +13613,7 @@
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" s="4" t="s">
-        <v>500</v>
+        <v>331</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
@@ -13601,12 +13633,12 @@
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="4" t="s">
-        <v>501</v>
+        <v>332</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
@@ -13614,12 +13646,12 @@
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
@@ -13627,27 +13659,27 @@
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="3" t="s">
-        <v>341</v>
+        <v>217</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="3" t="s">
-        <v>342</v>
+        <v>218</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="3" t="s">
-        <v>343</v>
+        <v>219</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="3" t="s">
-        <v>344</v>
+        <v>220</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="3" t="s">
-        <v>345</v>
+        <v>221</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
@@ -13655,12 +13687,12 @@
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
@@ -13668,7 +13700,7 @@
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
@@ -13676,47 +13708,47 @@
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="3" t="s">
-        <v>502</v>
+        <v>521</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="3" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="3" t="s">
-        <v>504</v>
+        <v>523</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="3" t="s">
-        <v>505</v>
+        <v>524</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="3" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="3" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="3" t="s">
-        <v>508</v>
+        <v>527</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
@@ -13724,47 +13756,47 @@
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" s="3" t="s">
-        <v>509</v>
+        <v>333</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="3" t="s">
-        <v>510</v>
+        <v>334</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="3" t="s">
-        <v>511</v>
+        <v>335</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" s="3" t="s">
-        <v>512</v>
+        <v>336</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" s="3" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" s="3" t="s">
-        <v>514</v>
+        <v>337</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
@@ -13772,42 +13804,42 @@
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" s="3" t="s">
-        <v>515</v>
+        <v>338</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" s="3" t="s">
-        <v>516</v>
+        <v>339</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" s="3" t="s">
-        <v>517</v>
+        <v>340</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" s="3" t="s">
-        <v>518</v>
+        <v>341</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" s="3" t="s">
-        <v>519</v>
+        <v>342</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" s="3" t="s">
-        <v>520</v>
+        <v>343</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
@@ -13815,37 +13847,37 @@
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" s="3" t="s">
-        <v>521</v>
+        <v>344</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" s="3" t="s">
-        <v>372</v>
+        <v>243</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
@@ -13858,22 +13890,22 @@
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" s="3" t="s">
-        <v>522</v>
+        <v>345</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" s="3" t="s">
-        <v>523</v>
+        <v>346</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" s="3" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
@@ -13883,7 +13915,9 @@
       <c r="A526" s="6"/>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A527" s="7"/>
+      <c r="A527" s="81" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" s="1"/>
